--- a/results/mp/logistic/home-spam/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,195 +46,207 @@
     <t>returned</t>
   </si>
   <si>
+    <t>stopped</t>
+  </si>
+  <si>
     <t>poor</t>
   </si>
   <si>
-    <t>stopped</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
-    <t>disappointing</t>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>thin</t>
   </si>
   <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>maybe</t>
   </si>
   <si>
-    <t>cracked</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
-    <t>spray</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>not</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>months</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>plastic</t>
   </si>
   <si>
     <t>grind</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>broken</t>
   </si>
   <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>filter</t>
   </si>
   <si>
-    <t>half</t>
-  </si>
-  <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>months</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
-    <t>iron</t>
-  </si>
-  <si>
-    <t>lid</t>
+    <t>after</t>
   </si>
   <si>
     <t>received</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>sent</t>
-  </si>
-  <si>
-    <t>side</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>off</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>but</t>
   </si>
   <si>
     <t>back</t>
   </si>
   <si>
+    <t>doesn</t>
+  </si>
+  <si>
     <t>machine</t>
   </si>
   <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>didn</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
     <t>fit</t>
   </si>
   <si>
-    <t>unit</t>
-  </si>
-  <si>
-    <t>piece</t>
-  </si>
-  <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>maker</t>
-  </si>
-  <si>
-    <t>tried</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>put</t>
-  </si>
-  <si>
-    <t>even</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>item</t>
+    <t>does</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
+    <t>product</t>
+  </si>
+  <si>
+    <t>the</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
-    <t>use</t>
+    <t>that</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
   </si>
   <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -244,12 +256,6 @@
     <t>pleased</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>potatoes</t>
-  </si>
-  <si>
     <t>perfectly</t>
   </si>
   <si>
@@ -260,6 +266,9 @@
   </si>
   <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -620,7 +629,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q62"/>
+  <dimension ref="A1:Q66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,10 +637,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -689,13 +698,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9292035398230089</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="C3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -707,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K3">
-        <v>0.8064516129032258</v>
+        <v>0.8125</v>
       </c>
       <c r="L3">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="M3">
-        <v>75</v>
+        <v>104</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -731,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -739,13 +748,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -757,19 +766,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K4">
-        <v>0.8046875</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L4">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="M4">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -781,7 +790,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -789,13 +798,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -807,19 +816,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5">
-        <v>0.7826086956521739</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L5">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="M5">
-        <v>36</v>
+        <v>208</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -831,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -839,13 +848,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8867924528301887</v>
+        <v>0.86</v>
       </c>
       <c r="C6">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D6">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -857,19 +866,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K6">
-        <v>0.711864406779661</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>210</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -881,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>85</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -889,13 +898,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8389830508474576</v>
+        <v>0.8559322033898306</v>
       </c>
       <c r="C7">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D7">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -907,19 +916,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="K7">
-        <v>0.7074303405572755</v>
+        <v>0.6099071207430341</v>
       </c>
       <c r="L7">
-        <v>457</v>
+        <v>394</v>
       </c>
       <c r="M7">
-        <v>457</v>
+        <v>394</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -931,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>189</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -939,13 +948,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.825</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C8">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D8">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -957,19 +966,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="K8">
-        <v>0.5194805194805194</v>
+        <v>0.4978354978354979</v>
       </c>
       <c r="L8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M8">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -981,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -989,13 +998,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8148148148148148</v>
+        <v>0.825</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1007,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K9">
         <v>0.4935064935064935</v>
@@ -1039,13 +1048,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8082191780821918</v>
+        <v>0.7891891891891892</v>
       </c>
       <c r="C10">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="D10">
-        <v>59</v>
+        <v>146</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1057,19 +1066,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="K10">
-        <v>0.3698630136986301</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M10">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1081,7 +1090,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1089,13 +1098,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.772972972972973</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="C11">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="D11">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1107,19 +1116,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K11">
-        <v>0.3492063492063492</v>
+        <v>0.2228571428571429</v>
       </c>
       <c r="L11">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="M11">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1131,7 +1140,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1139,13 +1148,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7727272727272727</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1157,19 +1166,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K12">
-        <v>0.3289473684210527</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="L12">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="M12">
-        <v>25</v>
+        <v>210</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1181,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>51</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1189,13 +1198,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7586206896551724</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1207,19 +1216,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="K13">
-        <v>0.32</v>
+        <v>0.06438356164383562</v>
       </c>
       <c r="L13">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M13">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1231,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>119</v>
+        <v>683</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1239,49 +1248,49 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.75</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C14">
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>49</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>24</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14">
+        <v>0.01880424300867888</v>
+      </c>
+      <c r="L14">
         <v>39</v>
       </c>
-      <c r="D14">
-        <v>39</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>1</v>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>13</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14">
-        <v>0.2174959871589085</v>
-      </c>
-      <c r="L14">
-        <v>271</v>
-      </c>
       <c r="M14">
-        <v>271</v>
+        <v>42</v>
       </c>
       <c r="N14">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>975</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1289,13 +1298,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7169811320754716</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="C15">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D15">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1307,31 +1316,7 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>15</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15">
-        <v>0.1068493150684932</v>
-      </c>
-      <c r="L15">
-        <v>78</v>
-      </c>
-      <c r="M15">
-        <v>78</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>652</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1324,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7058823529411765</v>
+        <v>0.6126984126984127</v>
       </c>
       <c r="C16">
-        <v>24</v>
+        <v>1158</v>
       </c>
       <c r="D16">
-        <v>24</v>
+        <v>1158</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1357,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>10</v>
+        <v>732</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1365,13 +1350,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7058823529411765</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="C17">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="D17">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1383,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>10</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1391,13 +1376,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.696969696969697</v>
+        <v>0.5377358490566038</v>
       </c>
       <c r="C18">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="D18">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1409,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>10</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1417,13 +1402,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6764705882352942</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C19">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="D19">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1435,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>22</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1443,13 +1428,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.676056338028169</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C20">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="D20">
-        <v>48</v>
+        <v>100</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1461,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>23</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1469,13 +1454,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C21">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="D21">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1487,7 +1472,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>45</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1495,13 +1480,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6307692307692307</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="C22">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="D22">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1513,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1521,13 +1506,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6111111111111112</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="C23">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1539,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1547,13 +1532,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5862068965517241</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C24">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="D24">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1565,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1573,13 +1558,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5681818181818182</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D25">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1591,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>19</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1599,13 +1584,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5675675675675675</v>
+        <v>0.3786407766990291</v>
       </c>
       <c r="C26">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="D26">
-        <v>84</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1625,13 +1610,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5660377358490566</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="C27">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="D27">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1643,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1651,13 +1636,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5641025641025641</v>
+        <v>0.3405405405405406</v>
       </c>
       <c r="C28">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D28">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1669,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>34</v>
+        <v>244</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1677,13 +1662,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5503875968992248</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="C29">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="D29">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1695,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>58</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1703,13 +1688,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5333333333333333</v>
+        <v>0.2602230483271376</v>
       </c>
       <c r="C30">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D30">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1721,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>21</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1729,13 +1714,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5221238938053098</v>
+        <v>0.2569832402234637</v>
       </c>
       <c r="C31">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="D31">
-        <v>59</v>
+        <v>46</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1747,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>54</v>
+        <v>133</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1755,13 +1740,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.5</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="C32">
-        <v>52</v>
+        <v>364</v>
       </c>
       <c r="D32">
-        <v>52</v>
+        <v>364</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1773,7 +1758,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>52</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1781,13 +1766,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4615384615384616</v>
+        <v>0.25</v>
       </c>
       <c r="C33">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D33">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1799,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>28</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1807,13 +1792,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4545454545454545</v>
+        <v>0.24</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1825,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>30</v>
+        <v>171</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1833,13 +1818,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4444444444444444</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1851,7 +1836,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>30</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1859,13 +1844,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4271844660194175</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="C36">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1877,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>59</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1885,13 +1870,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3854748603351955</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C37">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D37">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1903,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>110</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1911,13 +1896,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3636363636363636</v>
+        <v>0.1431111111111111</v>
       </c>
       <c r="C38">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="D38">
-        <v>24</v>
+        <v>161</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1929,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>42</v>
+        <v>964</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1937,13 +1922,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.36</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C39">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D39">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1955,7 +1940,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>64</v>
+        <v>135</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1963,13 +1948,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.358974358974359</v>
+        <v>0.1380952380952381</v>
       </c>
       <c r="C40">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="D40">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1981,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1989,13 +1974,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3402061855670103</v>
+        <v>0.1320754716981132</v>
       </c>
       <c r="C41">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="D41">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2007,7 +1992,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>64</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2015,13 +2000,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.32</v>
+        <v>0.115</v>
       </c>
       <c r="C42">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D42">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2033,7 +2018,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>136</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2041,13 +2026,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3026315789473684</v>
+        <v>0.06716417910447761</v>
       </c>
       <c r="C43">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2059,7 +2044,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>53</v>
+        <v>500</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2067,13 +2052,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2929292929292929</v>
+        <v>0.06109822119102862</v>
       </c>
       <c r="C44">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="D44">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2085,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>70</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2093,13 +2078,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.2698412698412698</v>
+        <v>0.05845511482254697</v>
       </c>
       <c r="C45">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D45">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2111,7 +2096,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>92</v>
+        <v>902</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2119,13 +2104,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.264367816091954</v>
+        <v>0.05591397849462366</v>
       </c>
       <c r="C46">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D46">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2137,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>64</v>
+        <v>439</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2145,25 +2130,25 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2619047619047619</v>
+        <v>0.04678111587982833</v>
       </c>
       <c r="C47">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="D47">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="E47">
-        <v>0.04</v>
+        <v>0.02</v>
       </c>
       <c r="F47">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>62</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2171,13 +2156,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2525252525252525</v>
+        <v>0.04674796747967479</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -2189,7 +2174,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>74</v>
+        <v>469</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2197,13 +2182,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2428571428571429</v>
+        <v>0.04563233376792699</v>
       </c>
       <c r="C49">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="D49">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2215,7 +2200,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>159</v>
+        <v>732</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2223,25 +2208,25 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2206896551724138</v>
+        <v>0.04393647023897877</v>
       </c>
       <c r="C50">
-        <v>32</v>
+        <v>296</v>
       </c>
       <c r="D50">
-        <v>32</v>
+        <v>304</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G50" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H50">
-        <v>113</v>
+        <v>6441</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2249,13 +2234,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1967654986522911</v>
+        <v>0.04353741496598639</v>
       </c>
       <c r="C51">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="D51">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2267,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>298</v>
+        <v>703</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2275,25 +2260,25 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1920529801324503</v>
+        <v>0.04124860646599777</v>
       </c>
       <c r="C52">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D52">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52">
-        <v>122</v>
+        <v>860</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2301,25 +2286,25 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1782945736434109</v>
+        <v>0.03533515316954807</v>
       </c>
       <c r="C53">
-        <v>23</v>
+        <v>233</v>
       </c>
       <c r="D53">
-        <v>23</v>
+        <v>239</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53">
-        <v>106</v>
+        <v>6361</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2327,25 +2312,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1685393258426966</v>
+        <v>0.03448275862068965</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="D54">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>148</v>
+        <v>1372</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2353,25 +2338,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1559139784946237</v>
+        <v>0.03137478608100399</v>
       </c>
       <c r="C55">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="D55">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F55">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55">
-        <v>157</v>
+        <v>1698</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2379,25 +2364,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1496598639455782</v>
+        <v>0.02921646746347941</v>
       </c>
       <c r="C56">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D56">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="E56">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H56">
-        <v>250</v>
+        <v>731</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2405,25 +2390,25 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1464646464646465</v>
+        <v>0.02917962209997608</v>
       </c>
       <c r="C57">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="D57">
-        <v>29</v>
+        <v>124</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57">
-        <v>169</v>
+        <v>4059</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2431,25 +2416,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1204013377926421</v>
+        <v>0.02863478596220594</v>
       </c>
       <c r="C58">
-        <v>36</v>
+        <v>297</v>
       </c>
       <c r="D58">
-        <v>36</v>
+        <v>307</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58">
-        <v>263</v>
+        <v>10075</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2457,13 +2442,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.108843537414966</v>
+        <v>0.02372881355932203</v>
       </c>
       <c r="C59">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="D59">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2475,7 +2460,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>655</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2483,25 +2468,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1004366812227074</v>
+        <v>0.02147340601255368</v>
       </c>
       <c r="C60">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D60">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>0.04</v>
       </c>
       <c r="F60">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="G60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60">
-        <v>206</v>
+        <v>2962</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2509,25 +2494,25 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.08213820078226858</v>
+        <v>0.01905742982230235</v>
       </c>
       <c r="C61">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="D61">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F61">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61">
-        <v>704</v>
+        <v>3809</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2535,13 +2520,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.01991341991341991</v>
+        <v>0.01678719008264463</v>
       </c>
       <c r="C62">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="D62">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="E62">
         <v>0.08</v>
@@ -2553,7 +2538,111 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1132</v>
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B63">
+        <v>0.01511811023622047</v>
+      </c>
+      <c r="C63">
+        <v>48</v>
+      </c>
+      <c r="D63">
+        <v>58</v>
+      </c>
+      <c r="E63">
+        <v>0.17</v>
+      </c>
+      <c r="F63">
+        <v>0.83</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B64">
+        <v>0.01460120459937945</v>
+      </c>
+      <c r="C64">
+        <v>80</v>
+      </c>
+      <c r="D64">
+        <v>90</v>
+      </c>
+      <c r="E64">
+        <v>0.11</v>
+      </c>
+      <c r="F64">
+        <v>0.89</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="H64">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>0.01062660315133749</v>
+      </c>
+      <c r="C65">
+        <v>29</v>
+      </c>
+      <c r="D65">
+        <v>30</v>
+      </c>
+      <c r="E65">
+        <v>0.03</v>
+      </c>
+      <c r="F65">
+        <v>0.97</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.006702103073723134</v>
+      </c>
+      <c r="C66">
+        <v>29</v>
+      </c>
+      <c r="D66">
+        <v>40</v>
+      </c>
+      <c r="E66">
+        <v>0.28</v>
+      </c>
+      <c r="F66">
+        <v>0.72</v>
+      </c>
+      <c r="G66" t="b">
+        <v>1</v>
+      </c>
+      <c r="H66">
+        <v>4298</v>
       </c>
     </row>
   </sheetData>
